--- a/src/apps/bid_record/extracted_data/GEM_2025_B_6442399.xlsx
+++ b/src/apps/bid_record/extracted_data/GEM_2025_B_6442399.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Custom Bid for Services - Servicing of Ground Aircraft Towing Tractor Similar Category Operation And Maintenance Of Other Machines And Plants Contract Period 6 Months . 4 MSE Exemption for Years of Experience and Turnover No . 4 Startup Exemption for Years of Experience and Turnover No 5 Document required from seller Additional Doc 1 Requested in ATC In case any bidder is seeking exemption from Experience Turnover Criteria, the supporting documents to prove his eligibility for exemption must be uploaded for evaluation by the buyer</t>
+          <t>Custom Bid for Services - Servicing of Ground Aircraft</t>
         </is>
       </c>
     </row>
